--- a/contratos/contratos-2-2016.xlsx
+++ b/contratos/contratos-2-2016.xlsx
@@ -667,7 +667,7 @@
     <t>ELECTRONICA MEGATONE S.A.</t>
   </si>
   <si>
-    <t>FERNANDEZ, MARIO HUGO</t>
+    <t>FERNANDEZ. MARIO HUGO</t>
   </si>
   <si>
     <t>NALDO LOMBARDI  S.A.</t>
@@ -676,7 +676,7 @@
     <t>ACEVEDO AGUSTIN EDUARDO</t>
   </si>
   <si>
-    <t>ALBIZZATTI, PABLO MARTIN Y FULINI, SERGIO RUBEN</t>
+    <t>ALBIZZATTI. PABLO MARTIN Y FULINI. SERGIO RUBEN</t>
   </si>
   <si>
     <t>CUPER S.C.</t>
@@ -724,7 +724,7 @@
     <t>GALLICET OSCAR MARCELO</t>
   </si>
   <si>
-    <t>MARSICO GUILLERMO MIGUEL, MARSICO JUAN EDUARDO</t>
+    <t>MARSICO GUILLERMO MIGUEL. MARSICO JUAN EDUARDO</t>
   </si>
   <si>
     <t>NACION LEASING S.A.</t>
@@ -742,7 +742,7 @@
     <t>PALMA RODOLFO GABRIEL</t>
   </si>
   <si>
-    <t>BOFFELLI, MARIA INES</t>
+    <t>BOFFELLI. MARIA INES</t>
   </si>
   <si>
     <t>FORNES DARIO A. Y FORNES CARLOS A. S.H.</t>
@@ -760,7 +760,7 @@
     <t>BENEDETTI MIGUEL ANGEL</t>
   </si>
   <si>
-    <t>RICCOTTI, MARIANA EDITH</t>
+    <t>RICCOTTI. MARIANA EDITH</t>
   </si>
   <si>
     <t>FERREYRA EDUARDO FEDERICO</t>
@@ -847,7 +847,7 @@
     <t>REYMUNDO EDUARDO JORGE</t>
   </si>
   <si>
-    <t>SCHAB DARIO, PEROTTI XAVIER, BENINCA MATIAS S.H.</t>
+    <t>SCHAB DARIO. PEROTTI XAVIER. BENINCA MATIAS SH</t>
   </si>
   <si>
     <t>INSTITUTO AUTARQUICO PROVINCIAL DEL SEGURO</t>
@@ -1231,544 +1231,544 @@
     <t>17</t>
   </si>
   <si>
-    <t>7.750,00</t>
-  </si>
-  <si>
-    <t>1.900,00</t>
-  </si>
-  <si>
-    <t>4.300,00</t>
-  </si>
-  <si>
-    <t>5.300,00</t>
-  </si>
-  <si>
-    <t>1.277.283,00</t>
-  </si>
-  <si>
-    <t>80.000,00</t>
-  </si>
-  <si>
-    <t>189.120,00</t>
-  </si>
-  <si>
-    <t>235.008,00</t>
-  </si>
-  <si>
-    <t>26,90</t>
-  </si>
-  <si>
-    <t>4.176,00</t>
-  </si>
-  <si>
-    <t>3.800,00</t>
-  </si>
-  <si>
-    <t>3.690,00</t>
-  </si>
-  <si>
-    <t>100,00</t>
-  </si>
-  <si>
-    <t>500,00</t>
-  </si>
-  <si>
-    <t>8.177,10</t>
-  </si>
-  <si>
-    <t>8.031,10</t>
-  </si>
-  <si>
-    <t>1.050,00</t>
-  </si>
-  <si>
-    <t>5.843,70</t>
-  </si>
-  <si>
-    <t>402.902,56</t>
-  </si>
-  <si>
-    <t>70.447,60</t>
-  </si>
-  <si>
-    <t>89.703,72</t>
-  </si>
-  <si>
-    <t>32.235,00</t>
-  </si>
-  <si>
-    <t>3.254,00</t>
-  </si>
-  <si>
-    <t>24.408,00</t>
-  </si>
-  <si>
-    <t>47.750,63</t>
-  </si>
-  <si>
-    <t>645,00</t>
-  </si>
-  <si>
-    <t>9.802,72</t>
-  </si>
-  <si>
-    <t>19.999,46</t>
-  </si>
-  <si>
-    <t>8.260,00</t>
-  </si>
-  <si>
-    <t>300,00</t>
-  </si>
-  <si>
-    <t>1.316,31</t>
-  </si>
-  <si>
-    <t>3.974,00</t>
-  </si>
-  <si>
-    <t>217,20</t>
-  </si>
-  <si>
-    <t>757,20</t>
-  </si>
-  <si>
-    <t>2.120,00</t>
-  </si>
-  <si>
-    <t>80,00</t>
-  </si>
-  <si>
-    <t>31.663,82</t>
-  </si>
-  <si>
-    <t>2.849,58</t>
-  </si>
-  <si>
-    <t>161,26</t>
-  </si>
-  <si>
-    <t>58.480,00</t>
-  </si>
-  <si>
-    <t>676,40</t>
-  </si>
-  <si>
-    <t>2.839,47</t>
-  </si>
-  <si>
-    <t>1.541,38</t>
-  </si>
-  <si>
-    <t>362,75</t>
-  </si>
-  <si>
-    <t>4.686,00</t>
-  </si>
-  <si>
-    <t>7.843,49</t>
-  </si>
-  <si>
-    <t>2.039,00</t>
-  </si>
-  <si>
-    <t>670,00</t>
-  </si>
-  <si>
-    <t>2.178,00</t>
-  </si>
-  <si>
-    <t>5.750,00</t>
-  </si>
-  <si>
-    <t>101.899,14</t>
-  </si>
-  <si>
-    <t>139.292,25</t>
-  </si>
-  <si>
-    <t>3.416,00</t>
-  </si>
-  <si>
-    <t>14.460,84</t>
-  </si>
-  <si>
-    <t>150,00</t>
-  </si>
-  <si>
-    <t>964,80</t>
-  </si>
-  <si>
-    <t>3.477,00</t>
-  </si>
-  <si>
-    <t>246,27</t>
-  </si>
-  <si>
-    <t>103,38</t>
-  </si>
-  <si>
-    <t>17.332,63</t>
-  </si>
-  <si>
-    <t>2.239,17</t>
-  </si>
-  <si>
-    <t>3.640,00</t>
-  </si>
-  <si>
-    <t>418,61</t>
-  </si>
-  <si>
-    <t>2.736,00</t>
-  </si>
-  <si>
-    <t>830,00</t>
-  </si>
-  <si>
-    <t>3.850,00</t>
-  </si>
-  <si>
-    <t>160,00</t>
-  </si>
-  <si>
-    <t>564,00</t>
-  </si>
-  <si>
-    <t>1.060,00</t>
-  </si>
-  <si>
-    <t>142,40</t>
-  </si>
-  <si>
-    <t>4.530,00</t>
-  </si>
-  <si>
-    <t>2.870,00</t>
-  </si>
-  <si>
-    <t>2.400,00</t>
-  </si>
-  <si>
-    <t>16.393,00</t>
-  </si>
-  <si>
-    <t>1.460,00</t>
-  </si>
-  <si>
-    <t>550,00</t>
-  </si>
-  <si>
-    <t>2.472,00</t>
-  </si>
-  <si>
-    <t>20.798,00</t>
-  </si>
-  <si>
-    <t>6.860,00</t>
-  </si>
-  <si>
-    <t>510,00</t>
-  </si>
-  <si>
-    <t>3.346,78</t>
-  </si>
-  <si>
-    <t>9.147,24</t>
-  </si>
-  <si>
-    <t>415.230,93</t>
-  </si>
-  <si>
-    <t>53.261,49</t>
-  </si>
-  <si>
-    <t>43.595,60</t>
-  </si>
-  <si>
-    <t>2.930,00</t>
-  </si>
-  <si>
-    <t>83,56</t>
-  </si>
-  <si>
-    <t>1.950,00</t>
-  </si>
-  <si>
-    <t>43.385,31</t>
-  </si>
-  <si>
-    <t>273,00</t>
-  </si>
-  <si>
-    <t>653,40</t>
-  </si>
-  <si>
-    <t>63.852,80</t>
-  </si>
-  <si>
-    <t>42,00</t>
-  </si>
-  <si>
-    <t>225,00</t>
-  </si>
-  <si>
-    <t>132.665,88</t>
-  </si>
-  <si>
-    <t>1.594,00</t>
-  </si>
-  <si>
-    <t>228,00</t>
-  </si>
-  <si>
-    <t>285,00</t>
-  </si>
-  <si>
-    <t>1.334,00</t>
-  </si>
-  <si>
-    <t>6.606,44</t>
-  </si>
-  <si>
-    <t>3.300,00</t>
-  </si>
-  <si>
-    <t>12.404,32</t>
-  </si>
-  <si>
-    <t>12.263,50</t>
-  </si>
-  <si>
-    <t>1.057,80</t>
-  </si>
-  <si>
-    <t>4.350,00</t>
-  </si>
-  <si>
-    <t>2.900,00</t>
-  </si>
-  <si>
-    <t>2.000,00</t>
-  </si>
-  <si>
-    <t>11.200,00</t>
-  </si>
-  <si>
-    <t>796,00</t>
-  </si>
-  <si>
-    <t>6.829,39</t>
-  </si>
-  <si>
-    <t>5.112,43</t>
-  </si>
-  <si>
-    <t>73.430,00</t>
-  </si>
-  <si>
-    <t>4.000,00</t>
-  </si>
-  <si>
-    <t>3.000,00</t>
-  </si>
-  <si>
-    <t>19.000,00</t>
-  </si>
-  <si>
-    <t>5.000,00</t>
-  </si>
-  <si>
-    <t>4.808,14</t>
-  </si>
-  <si>
-    <t>590,00</t>
-  </si>
-  <si>
-    <t>2.123,90</t>
-  </si>
-  <si>
-    <t>8.534,60</t>
-  </si>
-  <si>
-    <t>7.380,00</t>
-  </si>
-  <si>
-    <t>347,29</t>
-  </si>
-  <si>
-    <t>987,19</t>
-  </si>
-  <si>
-    <t>1.504,81</t>
-  </si>
-  <si>
-    <t>246.000,00</t>
-  </si>
-  <si>
-    <t>12.549,26</t>
-  </si>
-  <si>
-    <t>1.800,00</t>
-  </si>
-  <si>
-    <t>2.950,00</t>
-  </si>
-  <si>
-    <t>1.600,00</t>
-  </si>
-  <si>
-    <t>5.400,00</t>
-  </si>
-  <si>
-    <t>5.665,29</t>
-  </si>
-  <si>
-    <t>15.705,00</t>
-  </si>
-  <si>
-    <t>1.300,00</t>
-  </si>
-  <si>
-    <t>1.127,00</t>
-  </si>
-  <si>
-    <t>1.350,00</t>
-  </si>
-  <si>
-    <t>400,00</t>
-  </si>
-  <si>
-    <t>17.874,00</t>
-  </si>
-  <si>
-    <t>295,80</t>
-  </si>
-  <si>
-    <t>6.340,00</t>
-  </si>
-  <si>
-    <t>11.750,00</t>
-  </si>
-  <si>
-    <t>77,10</t>
-  </si>
-  <si>
-    <t>2.037,00</t>
-  </si>
-  <si>
-    <t>3.266,00</t>
-  </si>
-  <si>
-    <t>16.400,00</t>
-  </si>
-  <si>
-    <t>5.280,00</t>
-  </si>
-  <si>
-    <t>5.218,50</t>
-  </si>
-  <si>
-    <t>2.313,51</t>
-  </si>
-  <si>
-    <t>5.536,00</t>
-  </si>
-  <si>
-    <t>8.754,31</t>
-  </si>
-  <si>
-    <t>7.322,00</t>
-  </si>
-  <si>
-    <t>2.600,00</t>
-  </si>
-  <si>
-    <t>6.327,10</t>
-  </si>
-  <si>
-    <t>618,00</t>
-  </si>
-  <si>
-    <t>559,40</t>
-  </si>
-  <si>
-    <t>1.448,50</t>
-  </si>
-  <si>
-    <t>4.732,63</t>
-  </si>
-  <si>
-    <t>11.361,40</t>
-  </si>
-  <si>
-    <t>13.200,00</t>
-  </si>
-  <si>
-    <t>1.807,43</t>
-  </si>
-  <si>
-    <t>2.350,00</t>
-  </si>
-  <si>
-    <t>2.500,00</t>
-  </si>
-  <si>
-    <t>1.633,50</t>
-  </si>
-  <si>
-    <t>117.050,00</t>
-  </si>
-  <si>
-    <t>118.000,00</t>
-  </si>
-  <si>
-    <t>262.350,00</t>
-  </si>
-  <si>
-    <t>13.932,26</t>
-  </si>
-  <si>
-    <t>26.000,00</t>
-  </si>
-  <si>
-    <t>119.200,00</t>
-  </si>
-  <si>
-    <t>2.856.988,11</t>
-  </si>
-  <si>
-    <t>51.364,91</t>
-  </si>
-  <si>
-    <t>5.790,00</t>
-  </si>
-  <si>
-    <t>23.960,00</t>
-  </si>
-  <si>
-    <t>75.780,00</t>
-  </si>
-  <si>
-    <t>1.500,00</t>
-  </si>
-  <si>
-    <t>85.330,00</t>
-  </si>
-  <si>
-    <t>4.500,00</t>
-  </si>
-  <si>
-    <t>1.653,96</t>
-  </si>
-  <si>
-    <t>7.400,00</t>
-  </si>
-  <si>
-    <t>1.000,00</t>
-  </si>
-  <si>
-    <t>1.200,00</t>
+    <t>7750.00</t>
+  </si>
+  <si>
+    <t>1900.00</t>
+  </si>
+  <si>
+    <t>4300.00</t>
+  </si>
+  <si>
+    <t>5300.00</t>
+  </si>
+  <si>
+    <t>1277283.00</t>
+  </si>
+  <si>
+    <t>80000.00</t>
+  </si>
+  <si>
+    <t>189120.00</t>
+  </si>
+  <si>
+    <t>235008.00</t>
+  </si>
+  <si>
+    <t>26.90</t>
+  </si>
+  <si>
+    <t>4176.00</t>
+  </si>
+  <si>
+    <t>3800.00</t>
+  </si>
+  <si>
+    <t>3690.00</t>
+  </si>
+  <si>
+    <t>100.00</t>
+  </si>
+  <si>
+    <t>500.00</t>
+  </si>
+  <si>
+    <t>8177.10</t>
+  </si>
+  <si>
+    <t>8031.10</t>
+  </si>
+  <si>
+    <t>1050.00</t>
+  </si>
+  <si>
+    <t>5843.70</t>
+  </si>
+  <si>
+    <t>402902.56</t>
+  </si>
+  <si>
+    <t>70447.60</t>
+  </si>
+  <si>
+    <t>89703.72</t>
+  </si>
+  <si>
+    <t>32235.00</t>
+  </si>
+  <si>
+    <t>3254.00</t>
+  </si>
+  <si>
+    <t>24408.00</t>
+  </si>
+  <si>
+    <t>47750.63</t>
+  </si>
+  <si>
+    <t>645.00</t>
+  </si>
+  <si>
+    <t>9802.72</t>
+  </si>
+  <si>
+    <t>19999.46</t>
+  </si>
+  <si>
+    <t>8260.00</t>
+  </si>
+  <si>
+    <t>300.00</t>
+  </si>
+  <si>
+    <t>1316.31</t>
+  </si>
+  <si>
+    <t>3974.00</t>
+  </si>
+  <si>
+    <t>217.20</t>
+  </si>
+  <si>
+    <t>757.20</t>
+  </si>
+  <si>
+    <t>2120.00</t>
+  </si>
+  <si>
+    <t>80.00</t>
+  </si>
+  <si>
+    <t>31663.82</t>
+  </si>
+  <si>
+    <t>2849.58</t>
+  </si>
+  <si>
+    <t>161.26</t>
+  </si>
+  <si>
+    <t>58480.00</t>
+  </si>
+  <si>
+    <t>676.40</t>
+  </si>
+  <si>
+    <t>2839.47</t>
+  </si>
+  <si>
+    <t>1541.38</t>
+  </si>
+  <si>
+    <t>362.75</t>
+  </si>
+  <si>
+    <t>4686.00</t>
+  </si>
+  <si>
+    <t>7843.49</t>
+  </si>
+  <si>
+    <t>2039.00</t>
+  </si>
+  <si>
+    <t>670.00</t>
+  </si>
+  <si>
+    <t>2178.00</t>
+  </si>
+  <si>
+    <t>5750.00</t>
+  </si>
+  <si>
+    <t>101899.14</t>
+  </si>
+  <si>
+    <t>139292.25</t>
+  </si>
+  <si>
+    <t>3416.00</t>
+  </si>
+  <si>
+    <t>14460.84</t>
+  </si>
+  <si>
+    <t>150.00</t>
+  </si>
+  <si>
+    <t>964.80</t>
+  </si>
+  <si>
+    <t>3477.00</t>
+  </si>
+  <si>
+    <t>246.27</t>
+  </si>
+  <si>
+    <t>103.38</t>
+  </si>
+  <si>
+    <t>17332.63</t>
+  </si>
+  <si>
+    <t>2239.17</t>
+  </si>
+  <si>
+    <t>3640.00</t>
+  </si>
+  <si>
+    <t>418.61</t>
+  </si>
+  <si>
+    <t>2736.00</t>
+  </si>
+  <si>
+    <t>830.00</t>
+  </si>
+  <si>
+    <t>3850.00</t>
+  </si>
+  <si>
+    <t>160.00</t>
+  </si>
+  <si>
+    <t>564.00</t>
+  </si>
+  <si>
+    <t>1060.00</t>
+  </si>
+  <si>
+    <t>142.40</t>
+  </si>
+  <si>
+    <t>4530.00</t>
+  </si>
+  <si>
+    <t>2870.00</t>
+  </si>
+  <si>
+    <t>2400.00</t>
+  </si>
+  <si>
+    <t>16393.00</t>
+  </si>
+  <si>
+    <t>1460.00</t>
+  </si>
+  <si>
+    <t>550.00</t>
+  </si>
+  <si>
+    <t>2472.00</t>
+  </si>
+  <si>
+    <t>20798.00</t>
+  </si>
+  <si>
+    <t>6860.00</t>
+  </si>
+  <si>
+    <t>510.00</t>
+  </si>
+  <si>
+    <t>3346.78</t>
+  </si>
+  <si>
+    <t>9147.24</t>
+  </si>
+  <si>
+    <t>415230.93</t>
+  </si>
+  <si>
+    <t>53261.49</t>
+  </si>
+  <si>
+    <t>43595.60</t>
+  </si>
+  <si>
+    <t>2930.00</t>
+  </si>
+  <si>
+    <t>83.56</t>
+  </si>
+  <si>
+    <t>1950.00</t>
+  </si>
+  <si>
+    <t>43385.31</t>
+  </si>
+  <si>
+    <t>273.00</t>
+  </si>
+  <si>
+    <t>653.40</t>
+  </si>
+  <si>
+    <t>63852.80</t>
+  </si>
+  <si>
+    <t>42.00</t>
+  </si>
+  <si>
+    <t>225.00</t>
+  </si>
+  <si>
+    <t>132665.88</t>
+  </si>
+  <si>
+    <t>1594.00</t>
+  </si>
+  <si>
+    <t>228.00</t>
+  </si>
+  <si>
+    <t>285.00</t>
+  </si>
+  <si>
+    <t>1334.00</t>
+  </si>
+  <si>
+    <t>6606.44</t>
+  </si>
+  <si>
+    <t>3300.00</t>
+  </si>
+  <si>
+    <t>12404.32</t>
+  </si>
+  <si>
+    <t>12263.50</t>
+  </si>
+  <si>
+    <t>1057.80</t>
+  </si>
+  <si>
+    <t>4350.00</t>
+  </si>
+  <si>
+    <t>2900.00</t>
+  </si>
+  <si>
+    <t>2000.00</t>
+  </si>
+  <si>
+    <t>11200.00</t>
+  </si>
+  <si>
+    <t>796.00</t>
+  </si>
+  <si>
+    <t>6829.39</t>
+  </si>
+  <si>
+    <t>5112.43</t>
+  </si>
+  <si>
+    <t>73430.00</t>
+  </si>
+  <si>
+    <t>4000.00</t>
+  </si>
+  <si>
+    <t>3000.00</t>
+  </si>
+  <si>
+    <t>19000.00</t>
+  </si>
+  <si>
+    <t>5000.00</t>
+  </si>
+  <si>
+    <t>4808.14</t>
+  </si>
+  <si>
+    <t>590.00</t>
+  </si>
+  <si>
+    <t>2123.90</t>
+  </si>
+  <si>
+    <t>8534.60</t>
+  </si>
+  <si>
+    <t>7380.00</t>
+  </si>
+  <si>
+    <t>347.29</t>
+  </si>
+  <si>
+    <t>987.19</t>
+  </si>
+  <si>
+    <t>1504.81</t>
+  </si>
+  <si>
+    <t>246000.00</t>
+  </si>
+  <si>
+    <t>12549.26</t>
+  </si>
+  <si>
+    <t>1800.00</t>
+  </si>
+  <si>
+    <t>2950.00</t>
+  </si>
+  <si>
+    <t>1600.00</t>
+  </si>
+  <si>
+    <t>5400.00</t>
+  </si>
+  <si>
+    <t>5665.29</t>
+  </si>
+  <si>
+    <t>15705.00</t>
+  </si>
+  <si>
+    <t>1300.00</t>
+  </si>
+  <si>
+    <t>1127.00</t>
+  </si>
+  <si>
+    <t>1350.00</t>
+  </si>
+  <si>
+    <t>400.00</t>
+  </si>
+  <si>
+    <t>17874.00</t>
+  </si>
+  <si>
+    <t>295.80</t>
+  </si>
+  <si>
+    <t>6340.00</t>
+  </si>
+  <si>
+    <t>11750.00</t>
+  </si>
+  <si>
+    <t>77.10</t>
+  </si>
+  <si>
+    <t>2037.00</t>
+  </si>
+  <si>
+    <t>3266.00</t>
+  </si>
+  <si>
+    <t>16400.00</t>
+  </si>
+  <si>
+    <t>5280.00</t>
+  </si>
+  <si>
+    <t>5218.50</t>
+  </si>
+  <si>
+    <t>2313.51</t>
+  </si>
+  <si>
+    <t>5536.00</t>
+  </si>
+  <si>
+    <t>8754.31</t>
+  </si>
+  <si>
+    <t>7322.00</t>
+  </si>
+  <si>
+    <t>2600.00</t>
+  </si>
+  <si>
+    <t>6327.10</t>
+  </si>
+  <si>
+    <t>618.00</t>
+  </si>
+  <si>
+    <t>559.40</t>
+  </si>
+  <si>
+    <t>1448.50</t>
+  </si>
+  <si>
+    <t>4732.63</t>
+  </si>
+  <si>
+    <t>11361.40</t>
+  </si>
+  <si>
+    <t>13200.00</t>
+  </si>
+  <si>
+    <t>1807.43</t>
+  </si>
+  <si>
+    <t>2350.00</t>
+  </si>
+  <si>
+    <t>2500.00</t>
+  </si>
+  <si>
+    <t>1633.50</t>
+  </si>
+  <si>
+    <t>117050.00</t>
+  </si>
+  <si>
+    <t>118000.00</t>
+  </si>
+  <si>
+    <t>262350.00</t>
+  </si>
+  <si>
+    <t>13932.26</t>
+  </si>
+  <si>
+    <t>26000.00</t>
+  </si>
+  <si>
+    <t>119200.00</t>
+  </si>
+  <si>
+    <t>2856988.11</t>
+  </si>
+  <si>
+    <t>51364.91</t>
+  </si>
+  <si>
+    <t>5790.00</t>
+  </si>
+  <si>
+    <t>23960.00</t>
+  </si>
+  <si>
+    <t>75780.00</t>
+  </si>
+  <si>
+    <t>1500.00</t>
+  </si>
+  <si>
+    <t>85330.00</t>
+  </si>
+  <si>
+    <t>4500.00</t>
+  </si>
+  <si>
+    <t>1653.96</t>
+  </si>
+  <si>
+    <t>7400.00</t>
+  </si>
+  <si>
+    <t>1000.00</t>
+  </si>
+  <si>
+    <t>1200.00</t>
   </si>
 </sst>
 </file>
